--- a/measurements/Roster/Ge 6-6 1 415/SpeedProfile03-10-24.xlsx
+++ b/measurements/Roster/Ge 6-6 1 415/SpeedProfile03-10-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\PurpleHatModule\measurements\Roster\Ge 6-6 1 415\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1719AD5B-CFE5-489B-952B-899C42576F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F63F1F-8CFF-4CB0-A78E-7DC534B096A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="465" windowWidth="27330" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9105" yWindow="1200" windowWidth="27330" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>x</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Rhb Ge 6/6 I 415</t>
+  </si>
+  <si>
+    <t>Possible WiFi issue with commands behind.</t>
   </si>
 </sst>
 </file>
@@ -28274,10 +28277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28419,6 +28422,11 @@
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
